--- a/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61,757.38</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>64,734.23</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74,736.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66,749.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>61,978.51</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>66,749.65</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74,736.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64,734.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61,757.38</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>74736.60000000001</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>61757.38</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>65991.274</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>27.13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>46.65</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>40.57</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>27.13</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>46.65</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>36.62</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>61,784.51</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>64,767.62</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74,771.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66,790.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>62,025.16</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>66,790.22</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>74,771.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>64,767.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>61,784.51</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>74771.96000000001</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>61784.51</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>66027.894</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>28,846.73</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>28,249.53</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29,299.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25,308.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>29,309.20</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>25,308.70</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>29,299.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28,249.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>28,846.73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>29309.2</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>25308.7</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>28202.682</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>29,186.55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>34,496.78</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36,561.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34,730.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>29,737.80</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>34,730.23</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>36,561.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34,496.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>29,186.55</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>36561.9</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>29186.55</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>32942.652</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-1,816.75</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>472.66</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-999.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,928.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-1,595.63</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,928.95</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-999.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>472.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-1,816.75</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1928.95</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-1816.75</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-401.966</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>668.07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>605.91</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>790.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>790.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>578.30</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>790.27</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>790.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>605.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>668.07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>790.95</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>578.3</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>686.7</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>538.20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>559.23</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>618.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>557.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>633.29</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>557.22</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>618.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>559.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>538.20</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>633.29</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>538.2</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>581.3720000000001</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>3,192.18</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,858.56</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,761.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,511.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,877.92</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,511.93</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,761.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,858.56</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3,192.18</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3192.18</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1858.56</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2640.356</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,169.53</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-1,475.05</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5,738.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>962.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>484.28</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>962.92</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5,738.81</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-1,475.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,169.53</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5738.81</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>-1475.05</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>1376.098</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>456.81</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250.80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>422.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,023.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>255.12</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,023.24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>422.75</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>250.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>456.81</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1023.24</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>481.744</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,626.34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-1,224.25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6,161.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,986.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>739.40</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,986.16</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6,161.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-1,224.25</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,626.34</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>6161.56</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>-1224.25</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1857.842</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>324.39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>304.53</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>204.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>194.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>129.16</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>194.81</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>204.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>304.53</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>324.39</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>324.39</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>129.16</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>231.546</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,301.95</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-1,528.78</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5,956.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,791.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>610.24</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,791.35</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5,956.72</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-1,528.78</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,301.95</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>5956.72</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-1528.78</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1626.296</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,301.95</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-1,528.78</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,956.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,791.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>610.24</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,791.35</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5,956.72</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-1,528.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,301.95</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>5956.72</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-1528.78</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1626.296</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>370.82</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-439.84</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,888.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>575.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>146.04</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>575.09</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,888.35</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-439.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>370.82</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1888.35</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-439.84</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>508.092</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>931.13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-1,088.94</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4,068.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,216.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>464.20</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,216.26</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4,068.37</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-1,088.94</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>931.13</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>4068.37</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-1088.94</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1118.204</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>931.13</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-1,088.94</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4,068.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,216.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>464.20</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,216.26</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4,068.37</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-1,088.94</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>931.13</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>4068.37</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-1088.94</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1118.204</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>723.08</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>723.08</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>723.08</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>723.08</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-15.06</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>6.42</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>16.82</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>56.26</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-15.06</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>56.26</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-15.06</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>15.464</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-15.06</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>6.42</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>16.82</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>56.26</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-15.06</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>56.26</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-15.06</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>15.464</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-15.06</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>6.42</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>16.82</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>56.26</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-15.06</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>56.26</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>-15.06</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>15.464</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-15.06</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>6.42</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>16.82</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>56.26</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-15.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>12.88</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>56.26</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-15.06</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>15.464</v>
       </c>
     </row>
     <row r="31"/>
@@ -1502,15 +1272,6 @@
           <t>32.59</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>32.59</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1542,15 +1303,6 @@
         <is>
           <t>45.07</t>
         </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>45.07</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>45.07</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>45.07</v>
       </c>
     </row>
     <row r="35"/>
@@ -1608,15 +1360,6 @@
           <t>39.72</t>
         </is>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>39.72</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>39.72</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>39.72</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1649,15 +1392,6 @@
           <t>100.00</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1689,15 +1423,6 @@
         <is>
           <t>54.93</t>
         </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>54.92999999999999</v>
       </c>
     </row>
   </sheetData>
